--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="426">
   <si>
     <t>ID</t>
   </si>
@@ -114,6 +114,9 @@
     <t>Pass</t>
   </si>
   <si>
+    <t>Автоматизировано</t>
+  </si>
+  <si>
     <t>AUTH_ValidLogin_002</t>
   </si>
   <si>
@@ -1040,9 +1043,6 @@
   </si>
   <si>
     <t>Редактирование новости</t>
-  </si>
-  <si>
-    <t>1. Нажать кнопку All news/Все новости</t>
   </si>
   <si>
     <t>4. Поле Категория - выбрать категорию: Профсоюз</t>
@@ -2064,7 +2064,9 @@
       <c r="I8" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="33"/>
+      <c r="J8" s="33" t="s">
+        <v>28</v>
+      </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
@@ -2108,23 +2110,23 @@
     </row>
     <row r="10">
       <c r="A10" s="35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="37" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="38" t="s">
@@ -2153,10 +2155,10 @@
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
@@ -2183,10 +2185,10 @@
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
@@ -2213,10 +2215,10 @@
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
       <c r="F13" s="29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -2264,29 +2266,31 @@
     </row>
     <row r="15" ht="19.5" customHeight="1">
       <c r="A15" s="35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="36"/>
       <c r="D15" s="37" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H15" s="37"/>
       <c r="I15" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="38"/>
+      <c r="J15" s="38" t="s">
+        <v>28</v>
+      </c>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
@@ -2309,10 +2313,10 @@
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
       <c r="F16" s="29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
@@ -2360,23 +2364,23 @@
     </row>
     <row r="18">
       <c r="A18" s="35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="41"/>
       <c r="D18" s="37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H18" s="37"/>
       <c r="I18" s="38" t="s">
@@ -2405,10 +2409,10 @@
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
       <c r="F19" s="29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
@@ -2435,10 +2439,10 @@
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
       <c r="F20" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
@@ -2486,23 +2490,23 @@
     </row>
     <row r="22" ht="30.75" customHeight="1">
       <c r="A22" s="35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" s="41"/>
       <c r="D22" s="37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H22" s="37"/>
       <c r="I22" s="38" t="s">
@@ -2531,10 +2535,10 @@
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
       <c r="F23" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
@@ -2561,10 +2565,10 @@
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
       <c r="F24" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -2612,23 +2616,23 @@
     </row>
     <row r="26">
       <c r="A26" s="35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="41"/>
       <c r="D26" s="37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H26" s="37"/>
       <c r="I26" s="38" t="s">
@@ -2657,10 +2661,10 @@
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
       <c r="F27" s="29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H27" s="20"/>
       <c r="I27" s="20"/>
@@ -2687,10 +2691,10 @@
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
       <c r="F28" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
@@ -2738,23 +2742,23 @@
     </row>
     <row r="30">
       <c r="A30" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C30" s="41"/>
       <c r="D30" s="37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H30" s="37"/>
       <c r="I30" s="38" t="s">
@@ -2783,10 +2787,10 @@
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
       <c r="F31" s="29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
@@ -2813,10 +2817,10 @@
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
       <c r="F32" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -2864,31 +2868,33 @@
     </row>
     <row r="34">
       <c r="A34" s="35" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C34" s="36"/>
       <c r="D34" s="37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H34" s="37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I34" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="J34" s="38"/>
+        <v>75</v>
+      </c>
+      <c r="J34" s="38" t="s">
+        <v>28</v>
+      </c>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
@@ -2911,10 +2917,10 @@
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
       <c r="F35" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
@@ -2941,10 +2947,10 @@
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
       <c r="F36" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -2992,29 +2998,29 @@
     </row>
     <row r="38">
       <c r="A38" s="35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C38" s="36"/>
       <c r="D38" s="37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F38" s="29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H38" s="37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I38" s="38" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J38" s="38"/>
       <c r="K38" s="11"/>
@@ -3039,10 +3045,10 @@
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
       <c r="F39" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H39" s="20"/>
       <c r="I39" s="20"/>
@@ -3069,10 +3075,10 @@
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
       <c r="F40" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
@@ -3120,29 +3126,29 @@
     </row>
     <row r="42">
       <c r="A42" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C42" s="36"/>
       <c r="D42" s="37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E42" s="36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F42" s="29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H42" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I42" s="38" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J42" s="38"/>
       <c r="K42" s="11"/>
@@ -3167,10 +3173,10 @@
       <c r="D43" s="20"/>
       <c r="E43" s="20"/>
       <c r="F43" s="29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H43" s="20"/>
       <c r="I43" s="20"/>
@@ -3197,10 +3203,10 @@
       <c r="D44" s="24"/>
       <c r="E44" s="24"/>
       <c r="F44" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
@@ -3248,23 +3254,23 @@
     </row>
     <row r="46">
       <c r="A46" s="35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C46" s="36"/>
       <c r="D46" s="37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E46" s="36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H46" s="37"/>
       <c r="I46" s="38" t="s">
@@ -3293,10 +3299,10 @@
       <c r="D47" s="20"/>
       <c r="E47" s="20"/>
       <c r="F47" s="29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H47" s="20"/>
       <c r="I47" s="20"/>
@@ -3323,10 +3329,10 @@
       <c r="D48" s="24"/>
       <c r="E48" s="24"/>
       <c r="F48" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H48" s="24"/>
       <c r="I48" s="24"/>
@@ -3374,23 +3380,23 @@
     </row>
     <row r="50">
       <c r="A50" s="35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C50" s="36"/>
       <c r="D50" s="37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E50" s="36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H50" s="37"/>
       <c r="I50" s="38" t="s">
@@ -3419,10 +3425,10 @@
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
       <c r="F51" s="29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G51" s="29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
@@ -3449,10 +3455,10 @@
       <c r="D52" s="24"/>
       <c r="E52" s="24"/>
       <c r="F52" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H52" s="24"/>
       <c r="I52" s="24"/>
@@ -3500,29 +3506,31 @@
     </row>
     <row r="54">
       <c r="A54" s="35" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E54" s="36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F54" s="29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G54" s="29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H54" s="37"/>
       <c r="I54" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="J54" s="38"/>
+      <c r="J54" s="38" t="s">
+        <v>28</v>
+      </c>
       <c r="K54" s="11"/>
       <c r="L54" s="11"/>
       <c r="M54" s="11"/>
@@ -3545,10 +3553,10 @@
       <c r="D55" s="20"/>
       <c r="E55" s="20"/>
       <c r="F55" s="29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G55" s="29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H55" s="20"/>
       <c r="I55" s="20"/>
@@ -3575,10 +3583,10 @@
       <c r="D56" s="24"/>
       <c r="E56" s="24"/>
       <c r="F56" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G56" s="29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H56" s="24"/>
       <c r="I56" s="24"/>
@@ -3626,29 +3634,29 @@
     </row>
     <row r="58" ht="27.0" customHeight="1">
       <c r="A58" s="35" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C58" s="36"/>
       <c r="D58" s="37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E58" s="42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F58" s="29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G58" s="29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H58" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I58" s="38" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J58" s="38"/>
       <c r="K58" s="11"/>
@@ -3673,10 +3681,10 @@
       <c r="D59" s="20"/>
       <c r="E59" s="20"/>
       <c r="F59" s="29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G59" s="29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H59" s="20"/>
       <c r="I59" s="20"/>
@@ -3703,10 +3711,10 @@
       <c r="D60" s="24"/>
       <c r="E60" s="24"/>
       <c r="F60" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G60" s="29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H60" s="24"/>
       <c r="I60" s="24"/>
@@ -3754,29 +3762,29 @@
     </row>
     <row r="62" ht="24.0" customHeight="1">
       <c r="A62" s="35" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C62" s="36"/>
       <c r="D62" s="37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E62" s="42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G62" s="29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H62" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I62" s="38" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J62" s="38"/>
       <c r="K62" s="11"/>
@@ -3801,10 +3809,10 @@
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
       <c r="F63" s="29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G63" s="29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H63" s="20"/>
       <c r="I63" s="20"/>
@@ -3831,10 +3839,10 @@
       <c r="D64" s="24"/>
       <c r="E64" s="24"/>
       <c r="F64" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G64" s="29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H64" s="24"/>
       <c r="I64" s="24"/>
@@ -3856,7 +3864,7 @@
     </row>
     <row r="65">
       <c r="A65" s="43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B65" s="44"/>
       <c r="C65" s="44"/>
@@ -3884,10 +3892,10 @@
     </row>
     <row r="66">
       <c r="A66" s="46" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B66" s="47" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C66" s="48"/>
       <c r="D66" s="49" t="s">
@@ -3897,10 +3905,10 @@
         <v>24</v>
       </c>
       <c r="F66" s="29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G66" s="29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H66" s="51"/>
       <c r="I66" s="33" t="s">
@@ -3950,29 +3958,31 @@
     </row>
     <row r="68">
       <c r="A68" s="52" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C68" s="53"/>
       <c r="D68" s="54" t="s">
         <v>12</v>
       </c>
       <c r="E68" s="36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F68" s="29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G68" s="29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H68" s="55"/>
       <c r="I68" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="J68" s="38"/>
+      <c r="J68" s="38" t="s">
+        <v>28</v>
+      </c>
       <c r="K68" s="11"/>
       <c r="L68" s="11"/>
       <c r="M68" s="11"/>
@@ -3995,10 +4005,10 @@
       <c r="D69" s="20"/>
       <c r="E69" s="20"/>
       <c r="F69" s="56" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G69" s="56" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H69" s="20"/>
       <c r="I69" s="20"/>
@@ -4025,10 +4035,10 @@
       <c r="D70" s="20"/>
       <c r="E70" s="20"/>
       <c r="F70" s="30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G70" s="29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H70" s="20"/>
       <c r="I70" s="20"/>
@@ -4055,10 +4065,10 @@
       <c r="D71" s="20"/>
       <c r="E71" s="20"/>
       <c r="F71" s="56" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G71" s="56" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H71" s="20"/>
       <c r="I71" s="20"/>
@@ -4085,10 +4095,10 @@
       <c r="D72" s="20"/>
       <c r="E72" s="20"/>
       <c r="F72" s="30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G72" s="29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
@@ -4115,10 +4125,10 @@
       <c r="D73" s="24"/>
       <c r="E73" s="24"/>
       <c r="F73" s="30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G73" s="56" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H73" s="24"/>
       <c r="I73" s="24"/>
@@ -4166,29 +4176,29 @@
     </row>
     <row r="75">
       <c r="A75" s="52" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B75" s="40" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C75" s="53"/>
       <c r="D75" s="54" t="s">
         <v>12</v>
       </c>
       <c r="E75" s="36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F75" s="29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G75" s="29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H75" s="55" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I75" s="38" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J75" s="38"/>
       <c r="K75" s="11"/>
@@ -4213,10 +4223,10 @@
       <c r="D76" s="20"/>
       <c r="E76" s="20"/>
       <c r="F76" s="56" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G76" s="56" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H76" s="20"/>
       <c r="I76" s="20"/>
@@ -4243,10 +4253,10 @@
       <c r="D77" s="20"/>
       <c r="E77" s="20"/>
       <c r="F77" s="30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G77" s="29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H77" s="20"/>
       <c r="I77" s="20"/>
@@ -4273,10 +4283,10 @@
       <c r="D78" s="20"/>
       <c r="E78" s="20"/>
       <c r="F78" s="56" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G78" s="56" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H78" s="20"/>
       <c r="I78" s="20"/>
@@ -4303,10 +4313,10 @@
       <c r="D79" s="20"/>
       <c r="E79" s="20"/>
       <c r="F79" s="30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G79" s="29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H79" s="20"/>
       <c r="I79" s="20"/>
@@ -4333,10 +4343,10 @@
       <c r="D80" s="24"/>
       <c r="E80" s="24"/>
       <c r="F80" s="56" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G80" s="56" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H80" s="24"/>
       <c r="I80" s="24"/>
@@ -4384,23 +4394,23 @@
     </row>
     <row r="82">
       <c r="A82" s="58" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B82" s="56" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C82" s="59"/>
       <c r="D82" s="60" t="s">
         <v>12</v>
       </c>
       <c r="E82" s="36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F82" s="56" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G82" s="56" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H82" s="61"/>
       <c r="I82" s="33" t="s">
@@ -4424,7 +4434,7 @@
     </row>
     <row r="83">
       <c r="A83" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -4452,21 +4462,21 @@
     </row>
     <row r="84">
       <c r="A84" s="28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B84" s="47" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C84" s="62"/>
       <c r="D84" s="31" t="s">
         <v>12</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F84" s="56"/>
       <c r="G84" s="63" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H84" s="55"/>
       <c r="I84" s="33" t="s">
@@ -4516,23 +4526,23 @@
     </row>
     <row r="86">
       <c r="A86" s="35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B86" s="64" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C86" s="55"/>
       <c r="D86" s="37" t="s">
         <v>12</v>
       </c>
       <c r="E86" s="55" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F86" s="65" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G86" s="65" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H86" s="55"/>
       <c r="I86" s="38" t="s">
@@ -4587,10 +4597,10 @@
       <c r="D88" s="24"/>
       <c r="E88" s="24"/>
       <c r="F88" s="66" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G88" s="67" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H88" s="20"/>
       <c r="I88" s="24"/>
@@ -4638,29 +4648,31 @@
     </row>
     <row r="90">
       <c r="A90" s="35" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B90" s="64" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C90" s="55"/>
       <c r="D90" s="37" t="s">
         <v>12</v>
       </c>
       <c r="E90" s="55" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F90" s="68" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G90" s="69" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H90" s="70"/>
       <c r="I90" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="J90" s="38"/>
+      <c r="J90" s="38" t="s">
+        <v>28</v>
+      </c>
       <c r="K90" s="11"/>
       <c r="L90" s="11"/>
       <c r="M90" s="11"/>
@@ -4683,10 +4695,10 @@
       <c r="D91" s="20"/>
       <c r="E91" s="20"/>
       <c r="F91" s="39" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G91" s="71" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H91" s="20"/>
       <c r="I91" s="20"/>
@@ -4713,10 +4725,10 @@
       <c r="D92" s="24"/>
       <c r="E92" s="24"/>
       <c r="F92" s="68" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G92" s="68" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H92" s="20"/>
       <c r="I92" s="24"/>
@@ -4764,29 +4776,31 @@
     </row>
     <row r="94" ht="24.0" customHeight="1">
       <c r="A94" s="35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B94" s="65" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C94" s="55"/>
       <c r="D94" s="37" t="s">
         <v>12</v>
       </c>
       <c r="E94" s="55" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F94" s="68" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G94" s="69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H94" s="70"/>
       <c r="I94" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="J94" s="38"/>
+      <c r="J94" s="38" t="s">
+        <v>28</v>
+      </c>
       <c r="K94" s="73"/>
       <c r="L94" s="11"/>
       <c r="M94" s="11"/>
@@ -4809,10 +4823,10 @@
       <c r="D95" s="24"/>
       <c r="E95" s="24"/>
       <c r="F95" s="66" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G95" s="32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H95" s="20"/>
       <c r="I95" s="24"/>
@@ -4834,7 +4848,7 @@
     </row>
     <row r="96">
       <c r="A96" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -4862,23 +4876,23 @@
     </row>
     <row r="97">
       <c r="A97" s="35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B97" s="74" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C97" s="36"/>
       <c r="D97" s="37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E97" s="36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F97" s="30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G97" s="29" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H97" s="37"/>
       <c r="I97" s="38" t="s">
@@ -4907,10 +4921,10 @@
       <c r="D98" s="20"/>
       <c r="E98" s="20"/>
       <c r="F98" s="68" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G98" s="69" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H98" s="20"/>
       <c r="I98" s="20"/>
@@ -4937,10 +4951,10 @@
       <c r="D99" s="24"/>
       <c r="E99" s="24"/>
       <c r="F99" s="75" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G99" s="32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H99" s="24"/>
       <c r="I99" s="24"/>
@@ -4991,20 +5005,20 @@
         <v>70.0</v>
       </c>
       <c r="B101" s="74" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C101" s="55"/>
       <c r="D101" s="37" t="s">
         <v>12</v>
       </c>
       <c r="E101" s="36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F101" s="39" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G101" s="39" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H101" s="77"/>
       <c r="I101" s="77"/>
@@ -5031,10 +5045,10 @@
       <c r="D102" s="20"/>
       <c r="E102" s="20"/>
       <c r="F102" s="29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G102" s="29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H102" s="20"/>
       <c r="I102" s="20"/>
@@ -5061,10 +5075,10 @@
       <c r="D103" s="20"/>
       <c r="E103" s="20"/>
       <c r="F103" s="39" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G103" s="39" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H103" s="20"/>
       <c r="I103" s="20"/>
@@ -5091,10 +5105,10 @@
       <c r="D104" s="20"/>
       <c r="E104" s="20"/>
       <c r="F104" s="56" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G104" s="39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H104" s="20"/>
       <c r="I104" s="20"/>
@@ -5121,10 +5135,10 @@
       <c r="D105" s="24"/>
       <c r="E105" s="24"/>
       <c r="F105" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G105" s="39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H105" s="24"/>
       <c r="I105" s="24"/>
@@ -5175,20 +5189,20 @@
         <v>71.0</v>
       </c>
       <c r="B107" s="74" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C107" s="36"/>
       <c r="D107" s="37" t="s">
         <v>12</v>
       </c>
       <c r="E107" s="36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F107" s="29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G107" s="29" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H107" s="77"/>
       <c r="I107" s="77"/>
@@ -5215,10 +5229,10 @@
       <c r="D108" s="20"/>
       <c r="E108" s="20"/>
       <c r="F108" s="29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G108" s="29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H108" s="20"/>
       <c r="I108" s="20"/>
@@ -5245,10 +5259,10 @@
       <c r="D109" s="20"/>
       <c r="E109" s="20"/>
       <c r="F109" s="29" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G109" s="29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H109" s="20"/>
       <c r="I109" s="20"/>
@@ -5275,10 +5289,10 @@
       <c r="D110" s="20"/>
       <c r="E110" s="20"/>
       <c r="F110" s="68" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G110" s="29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H110" s="20"/>
       <c r="I110" s="20"/>
@@ -5305,10 +5319,10 @@
       <c r="D111" s="24"/>
       <c r="E111" s="24"/>
       <c r="F111" s="29" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G111" s="29" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H111" s="24"/>
       <c r="I111" s="24"/>
@@ -5359,20 +5373,20 @@
         <v>72.0</v>
       </c>
       <c r="B113" s="74" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C113" s="36"/>
       <c r="D113" s="37" t="s">
         <v>12</v>
       </c>
       <c r="E113" s="36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F113" s="29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G113" s="29" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H113" s="77"/>
       <c r="I113" s="77"/>
@@ -5399,10 +5413,10 @@
       <c r="D114" s="20"/>
       <c r="E114" s="20"/>
       <c r="F114" s="29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G114" s="29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H114" s="20"/>
       <c r="I114" s="20"/>
@@ -5429,10 +5443,10 @@
       <c r="D115" s="20"/>
       <c r="E115" s="20"/>
       <c r="F115" s="29" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G115" s="29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H115" s="20"/>
       <c r="I115" s="20"/>
@@ -5459,10 +5473,10 @@
       <c r="D116" s="20"/>
       <c r="E116" s="20"/>
       <c r="F116" s="68" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G116" s="29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H116" s="20"/>
       <c r="I116" s="20"/>
@@ -5489,10 +5503,10 @@
       <c r="D117" s="24"/>
       <c r="E117" s="24"/>
       <c r="F117" s="29" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G117" s="29" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H117" s="24"/>
       <c r="I117" s="24"/>
@@ -5543,20 +5557,20 @@
         <v>73.0</v>
       </c>
       <c r="B119" s="74" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C119" s="36"/>
       <c r="D119" s="37" t="s">
         <v>12</v>
       </c>
       <c r="E119" s="36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F119" s="29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G119" s="29" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H119" s="77"/>
       <c r="I119" s="77"/>
@@ -5583,10 +5597,10 @@
       <c r="D120" s="20"/>
       <c r="E120" s="20"/>
       <c r="F120" s="29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G120" s="29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H120" s="20"/>
       <c r="I120" s="20"/>
@@ -5613,10 +5627,10 @@
       <c r="D121" s="20"/>
       <c r="E121" s="20"/>
       <c r="F121" s="29" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G121" s="29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H121" s="20"/>
       <c r="I121" s="20"/>
@@ -5643,10 +5657,10 @@
       <c r="D122" s="20"/>
       <c r="E122" s="20"/>
       <c r="F122" s="68" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G122" s="29" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H122" s="20"/>
       <c r="I122" s="20"/>
@@ -5673,10 +5687,10 @@
       <c r="D123" s="24"/>
       <c r="E123" s="24"/>
       <c r="F123" s="29" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G123" s="29" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H123" s="24"/>
       <c r="I123" s="24"/>
@@ -5727,20 +5741,20 @@
         <v>74.0</v>
       </c>
       <c r="B125" s="74" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C125" s="36"/>
       <c r="D125" s="37" t="s">
         <v>12</v>
       </c>
       <c r="E125" s="36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F125" s="29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G125" s="29" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H125" s="77"/>
       <c r="I125" s="77"/>
@@ -5767,10 +5781,10 @@
       <c r="D126" s="20"/>
       <c r="E126" s="20"/>
       <c r="F126" s="29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G126" s="29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H126" s="20"/>
       <c r="I126" s="20"/>
@@ -5797,10 +5811,10 @@
       <c r="D127" s="20"/>
       <c r="E127" s="20"/>
       <c r="F127" s="29" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G127" s="29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H127" s="20"/>
       <c r="I127" s="20"/>
@@ -5827,10 +5841,10 @@
       <c r="D128" s="20"/>
       <c r="E128" s="20"/>
       <c r="F128" s="68" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G128" s="29" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H128" s="20"/>
       <c r="I128" s="20"/>
@@ -5857,10 +5871,10 @@
       <c r="D129" s="24"/>
       <c r="E129" s="24"/>
       <c r="F129" s="29" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G129" s="29" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H129" s="24"/>
       <c r="I129" s="24"/>
@@ -5911,20 +5925,20 @@
         <v>75.0</v>
       </c>
       <c r="B131" s="74" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C131" s="36"/>
       <c r="D131" s="37" t="s">
         <v>12</v>
       </c>
       <c r="E131" s="36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F131" s="29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G131" s="29" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H131" s="77"/>
       <c r="I131" s="77"/>
@@ -5951,10 +5965,10 @@
       <c r="D132" s="20"/>
       <c r="E132" s="20"/>
       <c r="F132" s="29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G132" s="29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H132" s="20"/>
       <c r="I132" s="20"/>
@@ -5981,10 +5995,10 @@
       <c r="D133" s="20"/>
       <c r="E133" s="20"/>
       <c r="F133" s="29" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G133" s="29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H133" s="20"/>
       <c r="I133" s="20"/>
@@ -6011,10 +6025,10 @@
       <c r="D134" s="20"/>
       <c r="E134" s="20"/>
       <c r="F134" s="68" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G134" s="29" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H134" s="20"/>
       <c r="I134" s="20"/>
@@ -6041,10 +6055,10 @@
       <c r="D135" s="24"/>
       <c r="E135" s="24"/>
       <c r="F135" s="29" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G135" s="29" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H135" s="24"/>
       <c r="I135" s="24"/>
@@ -6095,20 +6109,20 @@
         <v>76.0</v>
       </c>
       <c r="B137" s="74" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C137" s="36"/>
       <c r="D137" s="37" t="s">
         <v>12</v>
       </c>
       <c r="E137" s="36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F137" s="29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G137" s="29" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H137" s="77"/>
       <c r="I137" s="77"/>
@@ -6135,10 +6149,10 @@
       <c r="D138" s="20"/>
       <c r="E138" s="20"/>
       <c r="F138" s="29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G138" s="29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H138" s="20"/>
       <c r="I138" s="20"/>
@@ -6165,10 +6179,10 @@
       <c r="D139" s="20"/>
       <c r="E139" s="20"/>
       <c r="F139" s="29" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G139" s="29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H139" s="20"/>
       <c r="I139" s="20"/>
@@ -6195,10 +6209,10 @@
       <c r="D140" s="20"/>
       <c r="E140" s="20"/>
       <c r="F140" s="68" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G140" s="29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H140" s="20"/>
       <c r="I140" s="20"/>
@@ -6225,10 +6239,10 @@
       <c r="D141" s="24"/>
       <c r="E141" s="24"/>
       <c r="F141" s="29" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G141" s="29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H141" s="24"/>
       <c r="I141" s="24"/>
@@ -6279,20 +6293,20 @@
         <v>77.0</v>
       </c>
       <c r="B143" s="74" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C143" s="36"/>
       <c r="D143" s="37" t="s">
         <v>12</v>
       </c>
       <c r="E143" s="36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F143" s="29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G143" s="29" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H143" s="77"/>
       <c r="I143" s="77"/>
@@ -6319,10 +6333,10 @@
       <c r="D144" s="20"/>
       <c r="E144" s="20"/>
       <c r="F144" s="29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G144" s="29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H144" s="20"/>
       <c r="I144" s="20"/>
@@ -6349,10 +6363,10 @@
       <c r="D145" s="20"/>
       <c r="E145" s="20"/>
       <c r="F145" s="29" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G145" s="29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H145" s="20"/>
       <c r="I145" s="20"/>
@@ -6379,10 +6393,10 @@
       <c r="D146" s="20"/>
       <c r="E146" s="20"/>
       <c r="F146" s="68" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G146" s="29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H146" s="20"/>
       <c r="I146" s="20"/>
@@ -6409,10 +6423,10 @@
       <c r="D147" s="24"/>
       <c r="E147" s="24"/>
       <c r="F147" s="29" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G147" s="29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H147" s="24"/>
       <c r="I147" s="24"/>
@@ -6463,20 +6477,20 @@
         <v>78.0</v>
       </c>
       <c r="B149" s="74" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C149" s="36"/>
       <c r="D149" s="37" t="s">
         <v>12</v>
       </c>
       <c r="E149" s="36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F149" s="29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G149" s="29" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H149" s="37"/>
       <c r="I149" s="37"/>
@@ -6503,10 +6517,10 @@
       <c r="D150" s="20"/>
       <c r="E150" s="20"/>
       <c r="F150" s="29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G150" s="29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H150" s="20"/>
       <c r="I150" s="20"/>
@@ -6533,10 +6547,10 @@
       <c r="D151" s="20"/>
       <c r="E151" s="20"/>
       <c r="F151" s="29" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G151" s="29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H151" s="20"/>
       <c r="I151" s="20"/>
@@ -6563,10 +6577,10 @@
       <c r="D152" s="20"/>
       <c r="E152" s="20"/>
       <c r="F152" s="68" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G152" s="29" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H152" s="20"/>
       <c r="I152" s="20"/>
@@ -6593,10 +6607,10 @@
       <c r="D153" s="24"/>
       <c r="E153" s="24"/>
       <c r="F153" s="29" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G153" s="29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H153" s="24"/>
       <c r="I153" s="24"/>
@@ -6647,20 +6661,20 @@
         <v>79.0</v>
       </c>
       <c r="B155" s="74" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C155" s="55"/>
       <c r="D155" s="37" t="s">
         <v>12</v>
       </c>
       <c r="E155" s="36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F155" s="39" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G155" s="39" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H155" s="77"/>
       <c r="I155" s="77"/>
@@ -6687,10 +6701,10 @@
       <c r="D156" s="20"/>
       <c r="E156" s="20"/>
       <c r="F156" s="29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G156" s="29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H156" s="20"/>
       <c r="I156" s="20"/>
@@ -6717,10 +6731,10 @@
       <c r="D157" s="20"/>
       <c r="E157" s="20"/>
       <c r="F157" s="39" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G157" s="39" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H157" s="20"/>
       <c r="I157" s="20"/>
@@ -6747,10 +6761,10 @@
       <c r="D158" s="20"/>
       <c r="E158" s="20"/>
       <c r="F158" s="56" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G158" s="39" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H158" s="20"/>
       <c r="I158" s="20"/>
@@ -6777,10 +6791,10 @@
       <c r="D159" s="24"/>
       <c r="E159" s="24"/>
       <c r="F159" s="39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G159" s="39" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H159" s="24"/>
       <c r="I159" s="24"/>
@@ -6828,29 +6842,29 @@
     </row>
     <row r="161">
       <c r="A161" s="35" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C161" s="36"/>
       <c r="D161" s="37" t="s">
         <v>12</v>
       </c>
       <c r="E161" s="36" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F161" s="30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G161" s="29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H161" s="37" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I161" s="38" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J161" s="38"/>
       <c r="K161" s="11"/>
@@ -6875,10 +6889,10 @@
       <c r="D162" s="20"/>
       <c r="E162" s="20"/>
       <c r="F162" s="30" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G162" s="78" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H162" s="20"/>
       <c r="I162" s="20"/>
@@ -6905,10 +6919,10 @@
       <c r="D163" s="20"/>
       <c r="E163" s="20"/>
       <c r="F163" s="68" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G163" s="69" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H163" s="20"/>
       <c r="I163" s="20"/>
@@ -6935,10 +6949,10 @@
       <c r="D164" s="20"/>
       <c r="E164" s="20"/>
       <c r="F164" s="29" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G164" s="69" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H164" s="20"/>
       <c r="I164" s="20"/>
@@ -6965,10 +6979,10 @@
       <c r="D165" s="24"/>
       <c r="E165" s="24"/>
       <c r="F165" s="30" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G165" s="63" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H165" s="24"/>
       <c r="I165" s="24"/>
@@ -7016,23 +7030,23 @@
     </row>
     <row r="167" ht="36.0" customHeight="1">
       <c r="A167" s="35" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C167" s="36"/>
       <c r="D167" s="37" t="s">
         <v>12</v>
       </c>
       <c r="E167" s="36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F167" s="30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G167" s="29" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H167" s="37"/>
       <c r="I167" s="38" t="s">
@@ -7061,10 +7075,10 @@
       <c r="D168" s="20"/>
       <c r="E168" s="20"/>
       <c r="F168" s="30" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G168" s="78" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H168" s="20"/>
       <c r="I168" s="20"/>
@@ -7091,10 +7105,10 @@
       <c r="D169" s="20"/>
       <c r="E169" s="20"/>
       <c r="F169" s="68" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G169" s="69" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H169" s="20"/>
       <c r="I169" s="20"/>
@@ -7121,10 +7135,10 @@
       <c r="D170" s="24"/>
       <c r="E170" s="24"/>
       <c r="F170" s="63" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G170" s="56" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H170" s="24"/>
       <c r="I170" s="24"/>
@@ -7146,7 +7160,7 @@
     </row>
     <row r="171">
       <c r="A171" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -7174,29 +7188,31 @@
     </row>
     <row r="172" ht="36.0" customHeight="1">
       <c r="A172" s="35" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C172" s="36"/>
       <c r="D172" s="37" t="s">
         <v>12</v>
       </c>
       <c r="E172" s="63" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F172" s="30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G172" s="29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H172" s="37"/>
       <c r="I172" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="J172" s="38"/>
+      <c r="J172" s="38" t="s">
+        <v>28</v>
+      </c>
       <c r="K172" s="11"/>
       <c r="L172" s="11"/>
       <c r="M172" s="11"/>
@@ -7218,10 +7234,10 @@
       <c r="C173" s="24"/>
       <c r="D173" s="24"/>
       <c r="F173" s="29" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G173" s="29" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H173" s="24"/>
       <c r="I173" s="24"/>
@@ -7269,23 +7285,23 @@
     </row>
     <row r="175">
       <c r="A175" s="35" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B175" s="13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C175" s="36"/>
       <c r="D175" s="37" t="s">
         <v>12</v>
       </c>
       <c r="E175" s="63" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F175" s="30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G175" s="29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H175" s="37"/>
       <c r="I175" s="38" t="s">
@@ -7313,10 +7329,10 @@
       <c r="C176" s="20"/>
       <c r="D176" s="20"/>
       <c r="F176" s="29" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G176" s="29" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H176" s="20"/>
       <c r="I176" s="20"/>
@@ -7342,10 +7358,10 @@
       <c r="C177" s="20"/>
       <c r="D177" s="20"/>
       <c r="F177" s="68" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G177" s="69" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H177" s="20"/>
       <c r="I177" s="20"/>
@@ -7371,10 +7387,10 @@
       <c r="C178" s="24"/>
       <c r="D178" s="24"/>
       <c r="F178" s="75" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G178" s="32" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H178" s="24"/>
       <c r="I178" s="24"/>
@@ -7422,23 +7438,23 @@
     </row>
     <row r="180">
       <c r="A180" s="35" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B180" s="74" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C180" s="36"/>
       <c r="D180" s="37" t="s">
         <v>12</v>
       </c>
       <c r="E180" s="63" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F180" s="30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G180" s="29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H180" s="37"/>
       <c r="I180" s="38" t="s">
@@ -7466,10 +7482,10 @@
       <c r="C181" s="20"/>
       <c r="D181" s="20"/>
       <c r="F181" s="29" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G181" s="29" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H181" s="20"/>
       <c r="I181" s="20"/>
@@ -7495,10 +7511,10 @@
       <c r="C182" s="20"/>
       <c r="D182" s="20"/>
       <c r="F182" s="29" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G182" s="29" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H182" s="20"/>
       <c r="I182" s="20"/>
@@ -7524,10 +7540,10 @@
       <c r="C183" s="20"/>
       <c r="D183" s="20"/>
       <c r="F183" s="68" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G183" s="29" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H183" s="20"/>
       <c r="I183" s="20"/>
@@ -7553,10 +7569,10 @@
       <c r="C184" s="20"/>
       <c r="D184" s="20"/>
       <c r="F184" s="29" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G184" s="29" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H184" s="20"/>
       <c r="I184" s="20"/>
@@ -7582,10 +7598,10 @@
       <c r="C185" s="20"/>
       <c r="D185" s="20"/>
       <c r="F185" s="68" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G185" s="29" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H185" s="20"/>
       <c r="I185" s="20"/>
@@ -7611,10 +7627,10 @@
       <c r="C186" s="24"/>
       <c r="D186" s="24"/>
       <c r="F186" s="29" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G186" s="79" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H186" s="24"/>
       <c r="I186" s="24"/>
@@ -7662,23 +7678,23 @@
     </row>
     <row r="188">
       <c r="A188" s="35" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C188" s="36"/>
       <c r="D188" s="37" t="s">
         <v>12</v>
       </c>
       <c r="E188" s="36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F188" s="30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G188" s="29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H188" s="37"/>
       <c r="I188" s="38" t="s">
@@ -7707,10 +7723,10 @@
       <c r="D189" s="20"/>
       <c r="E189" s="20"/>
       <c r="F189" s="29" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G189" s="29" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H189" s="20"/>
       <c r="I189" s="20"/>
@@ -7737,10 +7753,10 @@
       <c r="D190" s="20"/>
       <c r="E190" s="20"/>
       <c r="F190" s="29" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G190" s="29" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H190" s="20"/>
       <c r="I190" s="20"/>
@@ -7767,10 +7783,10 @@
       <c r="D191" s="20"/>
       <c r="E191" s="20"/>
       <c r="F191" s="68" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G191" s="29" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H191" s="20"/>
       <c r="I191" s="20"/>
@@ -7797,10 +7813,10 @@
       <c r="D192" s="20"/>
       <c r="E192" s="20"/>
       <c r="F192" s="29" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G192" s="29" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H192" s="20"/>
       <c r="I192" s="20"/>
@@ -7827,10 +7843,10 @@
       <c r="D193" s="20"/>
       <c r="E193" s="20"/>
       <c r="F193" s="29" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G193" s="29" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H193" s="20"/>
       <c r="I193" s="20"/>
@@ -7857,10 +7873,10 @@
       <c r="D194" s="20"/>
       <c r="E194" s="20"/>
       <c r="F194" s="29" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G194" s="79" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H194" s="20"/>
       <c r="I194" s="20"/>
@@ -7887,10 +7903,10 @@
       <c r="D195" s="20"/>
       <c r="E195" s="20"/>
       <c r="F195" s="68" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G195" s="29" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H195" s="20"/>
       <c r="I195" s="20"/>
@@ -7917,10 +7933,10 @@
       <c r="D196" s="24"/>
       <c r="E196" s="24"/>
       <c r="F196" s="29" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G196" s="29" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H196" s="24"/>
       <c r="I196" s="24"/>
@@ -7968,29 +7984,31 @@
     </row>
     <row r="198">
       <c r="A198" s="35" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C198" s="36"/>
       <c r="D198" s="37" t="s">
         <v>12</v>
       </c>
       <c r="E198" s="36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F198" s="30" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G198" s="29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H198" s="37"/>
       <c r="I198" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="J198" s="38"/>
+      <c r="J198" s="38" t="s">
+        <v>28</v>
+      </c>
       <c r="K198" s="11"/>
       <c r="L198" s="11"/>
       <c r="M198" s="11"/>
@@ -8013,10 +8031,10 @@
       <c r="D199" s="20"/>
       <c r="E199" s="20"/>
       <c r="F199" s="29" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G199" s="29" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H199" s="20"/>
       <c r="I199" s="20"/>
@@ -8043,10 +8061,10 @@
       <c r="D200" s="20"/>
       <c r="E200" s="20"/>
       <c r="F200" s="29" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G200" s="29" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H200" s="20"/>
       <c r="I200" s="20"/>
@@ -8073,10 +8091,10 @@
       <c r="D201" s="24"/>
       <c r="E201" s="24"/>
       <c r="F201" s="29" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G201" s="29" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H201" s="24"/>
       <c r="I201" s="24"/>
@@ -8124,31 +8142,33 @@
     </row>
     <row r="203">
       <c r="A203" s="35" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B203" s="74" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C203" s="55"/>
       <c r="D203" s="37" t="s">
         <v>12</v>
       </c>
       <c r="E203" s="36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F203" s="30" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G203" s="29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H203" s="37" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I203" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="J203" s="38"/>
+        <v>75</v>
+      </c>
+      <c r="J203" s="38" t="s">
+        <v>28</v>
+      </c>
       <c r="K203" s="11"/>
       <c r="L203" s="11"/>
       <c r="M203" s="11"/>
@@ -8171,10 +8191,10 @@
       <c r="D204" s="20"/>
       <c r="E204" s="20"/>
       <c r="F204" s="29" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G204" s="29" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H204" s="20"/>
       <c r="I204" s="20"/>
@@ -8201,10 +8221,10 @@
       <c r="D205" s="20"/>
       <c r="E205" s="20"/>
       <c r="F205" s="29" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G205" s="29" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H205" s="20"/>
       <c r="I205" s="20"/>
@@ -8231,10 +8251,10 @@
       <c r="D206" s="20"/>
       <c r="E206" s="20"/>
       <c r="F206" s="29" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G206" s="29" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H206" s="20"/>
       <c r="I206" s="20"/>
@@ -8261,10 +8281,10 @@
       <c r="D207" s="20"/>
       <c r="E207" s="20"/>
       <c r="F207" s="29" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G207" s="29" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H207" s="20"/>
       <c r="I207" s="20"/>
@@ -8291,10 +8311,10 @@
       <c r="D208" s="20"/>
       <c r="E208" s="20"/>
       <c r="F208" s="29" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G208" s="29" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H208" s="20"/>
       <c r="I208" s="20"/>
@@ -8321,10 +8341,10 @@
       <c r="D209" s="20"/>
       <c r="E209" s="20"/>
       <c r="F209" s="29" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G209" s="29" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H209" s="20"/>
       <c r="I209" s="20"/>
@@ -8351,10 +8371,10 @@
       <c r="D210" s="20"/>
       <c r="E210" s="20"/>
       <c r="F210" s="29" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G210" s="29" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H210" s="20"/>
       <c r="I210" s="20"/>
@@ -8381,10 +8401,10 @@
       <c r="D211" s="20"/>
       <c r="E211" s="20"/>
       <c r="F211" s="29" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G211" s="29" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H211" s="20"/>
       <c r="I211" s="20"/>
@@ -8411,10 +8431,10 @@
       <c r="D212" s="24"/>
       <c r="E212" s="24"/>
       <c r="F212" s="29" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G212" s="29" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H212" s="24"/>
       <c r="I212" s="24"/>
@@ -8462,29 +8482,29 @@
     </row>
     <row r="214">
       <c r="A214" s="35" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B214" s="74" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C214" s="36"/>
       <c r="D214" s="37" t="s">
         <v>12</v>
       </c>
       <c r="E214" s="36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F214" s="30" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G214" s="29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H214" s="37" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I214" s="38" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J214" s="38"/>
       <c r="K214" s="11"/>
@@ -8509,10 +8529,10 @@
       <c r="D215" s="20"/>
       <c r="E215" s="20"/>
       <c r="F215" s="29" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G215" s="29" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H215" s="20"/>
       <c r="I215" s="20"/>
@@ -8539,10 +8559,10 @@
       <c r="D216" s="20"/>
       <c r="E216" s="20"/>
       <c r="F216" s="29" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G216" s="29" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H216" s="20"/>
       <c r="I216" s="20"/>
@@ -8569,10 +8589,10 @@
       <c r="D217" s="20"/>
       <c r="E217" s="20"/>
       <c r="F217" s="29" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G217" s="29" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H217" s="20"/>
       <c r="I217" s="20"/>
@@ -8599,10 +8619,10 @@
       <c r="D218" s="20"/>
       <c r="E218" s="20"/>
       <c r="F218" s="29" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G218" s="29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H218" s="20"/>
       <c r="I218" s="20"/>
@@ -8629,10 +8649,10 @@
       <c r="D219" s="20"/>
       <c r="E219" s="20"/>
       <c r="F219" s="29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G219" s="29" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H219" s="20"/>
       <c r="I219" s="20"/>
@@ -8659,10 +8679,10 @@
       <c r="D220" s="20"/>
       <c r="E220" s="20"/>
       <c r="F220" s="29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G220" s="29" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H220" s="20"/>
       <c r="I220" s="20"/>
@@ -8689,10 +8709,10 @@
       <c r="D221" s="20"/>
       <c r="E221" s="20"/>
       <c r="F221" s="29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G221" s="29" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H221" s="20"/>
       <c r="I221" s="20"/>
@@ -8719,10 +8739,10 @@
       <c r="D222" s="24"/>
       <c r="E222" s="24"/>
       <c r="F222" s="29" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G222" s="29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H222" s="24"/>
       <c r="I222" s="24"/>
@@ -8770,29 +8790,31 @@
     </row>
     <row r="224">
       <c r="A224" s="35" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C224" s="36"/>
       <c r="D224" s="37" t="s">
         <v>12</v>
       </c>
       <c r="E224" s="36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F224" s="30" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G224" s="29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H224" s="37"/>
       <c r="I224" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="J224" s="38"/>
+      <c r="J224" s="38" t="s">
+        <v>28</v>
+      </c>
       <c r="K224" s="11"/>
       <c r="L224" s="11"/>
       <c r="M224" s="11"/>
@@ -8815,10 +8837,10 @@
       <c r="D225" s="20"/>
       <c r="E225" s="20"/>
       <c r="F225" s="29" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G225" s="29" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H225" s="20"/>
       <c r="I225" s="20"/>
@@ -8845,10 +8867,10 @@
       <c r="D226" s="20"/>
       <c r="E226" s="20"/>
       <c r="F226" s="29" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G226" s="29" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H226" s="20"/>
       <c r="I226" s="20"/>
@@ -8875,10 +8897,10 @@
       <c r="D227" s="24"/>
       <c r="E227" s="24"/>
       <c r="F227" s="29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G227" s="29" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H227" s="24"/>
       <c r="I227" s="24"/>
@@ -8926,29 +8948,31 @@
     </row>
     <row r="229">
       <c r="A229" s="35" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B229" s="13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C229" s="36"/>
       <c r="D229" s="37" t="s">
         <v>12</v>
       </c>
       <c r="E229" s="36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F229" s="30" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G229" s="29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H229" s="37"/>
       <c r="I229" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="J229" s="38"/>
+      <c r="J229" s="38" t="s">
+        <v>28</v>
+      </c>
       <c r="K229" s="11"/>
       <c r="L229" s="11"/>
       <c r="M229" s="11"/>
@@ -8971,10 +8995,10 @@
       <c r="D230" s="20"/>
       <c r="E230" s="20"/>
       <c r="F230" s="29" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G230" s="29" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H230" s="20"/>
       <c r="I230" s="20"/>
@@ -9001,10 +9025,10 @@
       <c r="D231" s="20"/>
       <c r="E231" s="20"/>
       <c r="F231" s="29" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G231" s="29" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H231" s="20"/>
       <c r="I231" s="20"/>
@@ -9031,10 +9055,10 @@
       <c r="D232" s="20"/>
       <c r="E232" s="20"/>
       <c r="F232" s="56" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G232" s="39" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H232" s="20"/>
       <c r="I232" s="20"/>
@@ -9061,10 +9085,10 @@
       <c r="D233" s="24"/>
       <c r="E233" s="24"/>
       <c r="F233" s="56" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G233" s="39" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H233" s="24"/>
       <c r="I233" s="24"/>
@@ -9112,23 +9136,23 @@
     </row>
     <row r="235">
       <c r="A235" s="35" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B235" s="13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C235" s="36"/>
       <c r="D235" s="37" t="s">
         <v>12</v>
       </c>
       <c r="E235" s="36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F235" s="30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G235" s="29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H235" s="37"/>
       <c r="I235" s="38" t="s">
@@ -9157,10 +9181,10 @@
       <c r="D236" s="20"/>
       <c r="E236" s="20"/>
       <c r="F236" s="29" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G236" s="29" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H236" s="20"/>
       <c r="I236" s="20"/>
@@ -9187,10 +9211,10 @@
       <c r="D237" s="20"/>
       <c r="E237" s="20"/>
       <c r="F237" s="29" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G237" s="29" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H237" s="20"/>
       <c r="I237" s="20"/>
@@ -9217,10 +9241,10 @@
       <c r="D238" s="20"/>
       <c r="E238" s="20"/>
       <c r="F238" s="29" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G238" s="39" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H238" s="20"/>
       <c r="I238" s="20"/>
@@ -9247,10 +9271,10 @@
       <c r="D239" s="24"/>
       <c r="E239" s="24"/>
       <c r="F239" s="29" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G239" s="29" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H239" s="24"/>
       <c r="I239" s="24"/>
@@ -9298,29 +9322,29 @@
     </row>
     <row r="241">
       <c r="A241" s="35" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B241" s="74" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C241" s="36"/>
       <c r="D241" s="37" t="s">
         <v>12</v>
       </c>
       <c r="E241" s="36" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F241" s="30" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G241" s="29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H241" s="37" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I241" s="38" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J241" s="38"/>
       <c r="K241" s="11"/>
@@ -9345,10 +9369,10 @@
       <c r="D242" s="20"/>
       <c r="E242" s="20"/>
       <c r="F242" s="29" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G242" s="29" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H242" s="20"/>
       <c r="I242" s="20"/>
@@ -9375,10 +9399,10 @@
       <c r="D243" s="20"/>
       <c r="E243" s="20"/>
       <c r="F243" s="29" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G243" s="29" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H243" s="20"/>
       <c r="I243" s="20"/>
@@ -9405,10 +9429,10 @@
       <c r="D244" s="20"/>
       <c r="E244" s="20"/>
       <c r="F244" s="29" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G244" s="29" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H244" s="20"/>
       <c r="I244" s="20"/>
@@ -9435,10 +9459,10 @@
       <c r="D245" s="20"/>
       <c r="E245" s="20"/>
       <c r="F245" s="29" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G245" s="29" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H245" s="20"/>
       <c r="I245" s="20"/>
@@ -9465,10 +9489,10 @@
       <c r="D246" s="20"/>
       <c r="E246" s="20"/>
       <c r="F246" s="29" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G246" s="29" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H246" s="20"/>
       <c r="I246" s="20"/>
@@ -9495,10 +9519,10 @@
       <c r="D247" s="20"/>
       <c r="E247" s="20"/>
       <c r="F247" s="29" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G247" s="29" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H247" s="20"/>
       <c r="I247" s="20"/>
@@ -9525,10 +9549,10 @@
       <c r="D248" s="20"/>
       <c r="E248" s="20"/>
       <c r="F248" s="29" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G248" s="29" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H248" s="20"/>
       <c r="I248" s="20"/>
@@ -9555,10 +9579,10 @@
       <c r="D249" s="20"/>
       <c r="E249" s="20"/>
       <c r="F249" s="29" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G249" s="29" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H249" s="20"/>
       <c r="I249" s="20"/>
@@ -9585,10 +9609,10 @@
       <c r="D250" s="20"/>
       <c r="E250" s="20"/>
       <c r="F250" s="29" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G250" s="29" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H250" s="20"/>
       <c r="I250" s="20"/>
@@ -9615,10 +9639,10 @@
       <c r="D251" s="20"/>
       <c r="E251" s="20"/>
       <c r="F251" s="29" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G251" s="29" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H251" s="20"/>
       <c r="I251" s="20"/>
@@ -9645,10 +9669,10 @@
       <c r="D252" s="20"/>
       <c r="E252" s="20"/>
       <c r="F252" s="29" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G252" s="29" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H252" s="20"/>
       <c r="I252" s="20"/>
@@ -9675,10 +9699,10 @@
       <c r="D253" s="20"/>
       <c r="E253" s="20"/>
       <c r="F253" s="29" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G253" s="29" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H253" s="20"/>
       <c r="I253" s="20"/>
@@ -9705,10 +9729,10 @@
       <c r="D254" s="20"/>
       <c r="E254" s="20"/>
       <c r="F254" s="29" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G254" s="29" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H254" s="20"/>
       <c r="I254" s="20"/>
@@ -9735,10 +9759,10 @@
       <c r="D255" s="24"/>
       <c r="E255" s="24"/>
       <c r="F255" s="29" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G255" s="29" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H255" s="24"/>
       <c r="I255" s="24"/>
@@ -9786,31 +9810,33 @@
     </row>
     <row r="257">
       <c r="A257" s="35" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B257" s="74" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C257" s="36"/>
       <c r="D257" s="37" t="s">
         <v>12</v>
       </c>
       <c r="E257" s="36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F257" s="30" t="s">
-        <v>335</v>
+        <v>265</v>
       </c>
       <c r="G257" s="29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H257" s="37" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I257" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="J257" s="38"/>
+        <v>75</v>
+      </c>
+      <c r="J257" s="38" t="s">
+        <v>28</v>
+      </c>
       <c r="K257" s="11"/>
       <c r="L257" s="11"/>
       <c r="M257" s="11"/>
@@ -9833,10 +9859,10 @@
       <c r="D258" s="20"/>
       <c r="E258" s="20"/>
       <c r="F258" s="29" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G258" s="29" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H258" s="20"/>
       <c r="I258" s="20"/>
@@ -9863,10 +9889,10 @@
       <c r="D259" s="20"/>
       <c r="E259" s="20"/>
       <c r="F259" s="29" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G259" s="29" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H259" s="20"/>
       <c r="I259" s="20"/>
@@ -9953,7 +9979,7 @@
       <c r="D262" s="20"/>
       <c r="E262" s="20"/>
       <c r="F262" s="29" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G262" s="29" t="s">
         <v>340</v>
@@ -9983,7 +10009,7 @@
       <c r="D263" s="20"/>
       <c r="E263" s="20"/>
       <c r="F263" s="29" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G263" s="29" t="s">
         <v>341</v>
@@ -10013,7 +10039,7 @@
       <c r="D264" s="20"/>
       <c r="E264" s="20"/>
       <c r="F264" s="29" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G264" s="29" t="s">
         <v>342</v>
@@ -10043,7 +10069,7 @@
       <c r="D265" s="20"/>
       <c r="E265" s="20"/>
       <c r="F265" s="29" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G265" s="29" t="s">
         <v>343</v>
@@ -10073,7 +10099,7 @@
       <c r="D266" s="20"/>
       <c r="E266" s="20"/>
       <c r="F266" s="29" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G266" s="29" t="s">
         <v>344</v>
@@ -10284,19 +10310,21 @@
         <v>12</v>
       </c>
       <c r="E273" s="36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F273" s="30" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G273" s="29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H273" s="37"/>
       <c r="I273" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="J273" s="38"/>
+      <c r="J273" s="38" t="s">
+        <v>28</v>
+      </c>
       <c r="K273" s="11"/>
       <c r="L273" s="11"/>
       <c r="M273" s="11"/>
@@ -10319,10 +10347,10 @@
       <c r="D274" s="20"/>
       <c r="E274" s="20"/>
       <c r="F274" s="29" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G274" s="29" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H274" s="20"/>
       <c r="I274" s="20"/>
@@ -10349,10 +10377,10 @@
       <c r="D275" s="20"/>
       <c r="E275" s="20"/>
       <c r="F275" s="29" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G275" s="29" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H275" s="20"/>
       <c r="I275" s="20"/>
@@ -10379,10 +10407,10 @@
       <c r="D276" s="20"/>
       <c r="E276" s="20"/>
       <c r="F276" s="56" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G276" s="39" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H276" s="20"/>
       <c r="I276" s="20"/>
@@ -10409,10 +10437,10 @@
       <c r="D277" s="24"/>
       <c r="E277" s="24"/>
       <c r="F277" s="56" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G277" s="39" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H277" s="24"/>
       <c r="I277" s="24"/>
@@ -10473,10 +10501,10 @@
         <v>359</v>
       </c>
       <c r="F279" s="30" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G279" s="29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H279" s="81"/>
       <c r="I279" s="38" t="s">
@@ -10505,10 +10533,10 @@
       <c r="D280" s="20"/>
       <c r="E280" s="20"/>
       <c r="F280" s="29" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G280" s="29" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H280" s="20"/>
       <c r="I280" s="20"/>
@@ -10535,10 +10563,10 @@
       <c r="D281" s="20"/>
       <c r="E281" s="20"/>
       <c r="F281" s="29" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G281" s="29" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H281" s="20"/>
       <c r="I281" s="20"/>
@@ -10565,10 +10593,10 @@
       <c r="D282" s="20"/>
       <c r="E282" s="20"/>
       <c r="F282" s="56" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G282" s="39" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H282" s="20"/>
       <c r="I282" s="20"/>
@@ -10595,7 +10623,7 @@
       <c r="D283" s="24"/>
       <c r="E283" s="24"/>
       <c r="F283" s="29" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G283" s="29" t="s">
         <v>360</v>
@@ -10658,7 +10686,7 @@
         <v>12</v>
       </c>
       <c r="E285" s="30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F285" s="29" t="s">
         <v>364</v>
@@ -10670,7 +10698,9 @@
       <c r="I285" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="J285" s="38"/>
+      <c r="J285" s="38" t="s">
+        <v>28</v>
+      </c>
       <c r="K285" s="11"/>
       <c r="L285" s="11"/>
       <c r="M285" s="11"/>
@@ -10724,7 +10754,7 @@
         <v>12</v>
       </c>
       <c r="E287" s="36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F287" s="29" t="s">
         <v>364</v>
@@ -10736,7 +10766,9 @@
       <c r="I287" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="J287" s="38"/>
+      <c r="J287" s="38" t="s">
+        <v>28</v>
+      </c>
       <c r="K287" s="11"/>
       <c r="L287" s="11"/>
       <c r="M287" s="11"/>
@@ -10852,19 +10884,21 @@
         <v>12</v>
       </c>
       <c r="E291" s="36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F291" s="29" t="s">
         <v>376</v>
       </c>
       <c r="G291" s="29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H291" s="31"/>
       <c r="I291" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="J291" s="38"/>
+      <c r="J291" s="38" t="s">
+        <v>28</v>
+      </c>
       <c r="K291" s="11"/>
       <c r="L291" s="11"/>
       <c r="M291" s="11"/>
@@ -11068,21 +11102,23 @@
         <v>12</v>
       </c>
       <c r="E298" s="36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F298" s="29" t="s">
         <v>376</v>
       </c>
       <c r="G298" s="29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H298" s="37" t="s">
         <v>389</v>
       </c>
       <c r="I298" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="J298" s="38"/>
+        <v>75</v>
+      </c>
+      <c r="J298" s="38" t="s">
+        <v>28</v>
+      </c>
       <c r="K298" s="11"/>
       <c r="L298" s="11"/>
       <c r="M298" s="11"/>
@@ -11196,21 +11232,23 @@
         <v>12</v>
       </c>
       <c r="E302" s="36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F302" s="29" t="s">
         <v>376</v>
       </c>
       <c r="G302" s="29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H302" s="37" t="s">
         <v>396</v>
       </c>
       <c r="I302" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="J302" s="38"/>
+        <v>75</v>
+      </c>
+      <c r="J302" s="38" t="s">
+        <v>28</v>
+      </c>
       <c r="K302" s="11"/>
       <c r="L302" s="11"/>
       <c r="M302" s="11"/>
@@ -11318,7 +11356,7 @@
         <v>12</v>
       </c>
       <c r="E306" s="36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F306" s="29" t="s">
         <v>402</v>
@@ -11440,7 +11478,7 @@
         <v>12</v>
       </c>
       <c r="E310" s="30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F310" s="29" t="s">
         <v>409</v>
@@ -11502,7 +11540,7 @@
         <v>12</v>
       </c>
       <c r="E312" s="30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F312" s="29" t="s">
         <v>412</v>
@@ -11564,7 +11602,7 @@
         <v>12</v>
       </c>
       <c r="E314" s="30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F314" s="29" t="s">
         <v>415</v>
@@ -11626,7 +11664,7 @@
         <v>12</v>
       </c>
       <c r="E316" s="30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F316" s="29" t="s">
         <v>418</v>
@@ -11688,7 +11726,7 @@
         <v>12</v>
       </c>
       <c r="E318" s="30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F318" s="29" t="s">
         <v>421</v>
@@ -11750,7 +11788,7 @@
         <v>12</v>
       </c>
       <c r="E320" s="30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F320" s="29" t="s">
         <v>421</v>
@@ -11812,7 +11850,7 @@
         <v>12</v>
       </c>
       <c r="E322" s="30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F322" s="29" t="s">
         <v>421</v>
@@ -11874,7 +11912,7 @@
         <v>12</v>
       </c>
       <c r="E324" s="30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F324" s="29" t="s">
         <v>421</v>
